--- a/4.项目提交制品/4.4软件测试/4-功能测试/测试覆盖表_沈一聪.xlsx
+++ b/4.项目提交制品/4.4软件测试/4-功能测试/测试覆盖表_沈一聪.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tonny\Desktop\测试结果\4-功能测试\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sheny\Documents\GitHub\20_H\4.项目提交制品\4.4软件测试\4-功能测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FDE845-0AF8-4442-8A6C-5A1F52E910AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D708B652-646C-4B7D-9696-70BBD59897BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -215,24 +215,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -366,39 +366,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -679,17 +679,17 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" customWidth="1"/>
+    <col min="7" max="7" width="16.265625" customWidth="1"/>
+    <col min="11" max="11" width="19.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -707,7 +707,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="10"/>
     </row>
-    <row r="2" spans="1:12" ht="30">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -729,7 +729,7 @@
       <c r="K2" s="12"/>
       <c r="L2" s="13"/>
     </row>
-    <row r="3" spans="1:12" ht="30">
+    <row r="3" spans="1:12" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -751,19 +751,19 @@
       <c r="K3" s="12"/>
       <c r="L3" s="13"/>
     </row>
-    <row r="4" spans="1:12" ht="30">
+    <row r="4" spans="1:12" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
@@ -783,19 +783,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="28.5">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:12" ht="24.75" x14ac:dyDescent="0.4">
+      <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="5" t="s">
         <v>35</v>
       </c>
@@ -813,19 +813,19 @@
       </c>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:12" ht="60.75" customHeight="1">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
       <c r="G6" s="5" t="s">
         <v>33</v>
       </c>
@@ -843,19 +843,19 @@
       </c>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12" ht="78" customHeight="1">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="5" t="s">
         <v>34</v>
       </c>
@@ -873,19 +873,19 @@
       </c>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12" ht="88.15" customHeight="1">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:12" ht="88.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="5" t="s">
         <v>30</v>
       </c>
@@ -903,19 +903,19 @@
       </c>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12" ht="54.4" customHeight="1"/>
+    <row r="9" spans="1:12" ht="54.4" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="H2:L2"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
